--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB450DC-4473-490B-B005-324CC15B87E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F877FB8D-A0A0-4788-B3E9-8D742770E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>Task 3: Worked on connecting front end to the backend. Added GET, POST requests handling in the backend for session joins and session creations. Task 4: Created methods and parameters for getting message (Without reply) from the frontend. Task 6: Create a SPROC do handle createSession and joinSession. No validation</t>
   </si>
   <si>
-    <t>Set up the Database server on the server we got from the CS department. Had a development meeting with Luca and Mihai. Assisted most of the team with getting connected to A. The database server, B. the Github repository, or C. Both. Task  16: Created the methods necessary to post a message but did not implement the business logic within those methods. Added documentation to methods to better connect to the front-end. Task 6: Wrapped SPROC inside a transaction. No parameters actually needed to be validated since they are all OUT parameters. Fixed the bug that had the session ID always be 2 if the session did not exist.</t>
+    <t>Set up the Database server on the server we got from the CS department. Had a development meeting with Luca and Mihai. Assisted most of the team with getting connected to A. The database server, B. the Github repository, or C. Both. Task  16: Created the methods necessary to post a message but did not implement the business logic within those methods. Added documentation to methods to better connect to the front-end. Task 6: Wrapped SPROC inside a transaction. No parameters actually needed to be validated since they are all OUT parameters. Fixed the bug that had the session ID always be 2 if the session did not exist. Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored.</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>44143</v>
       </c>
       <c r="E12" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>16</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F877FB8D-A0A0-4788-B3E9-8D742770E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626A7D7D-F0DC-428C-985B-2D016D560095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -87,7 +87,10 @@
     <t>Task 3: Worked on connecting front end to the backend. Added GET, POST requests handling in the backend for session joins and session creations. Task 4: Created methods and parameters for getting message (Without reply) from the frontend. Task 6: Create a SPROC do handle createSession and joinSession. No validation</t>
   </si>
   <si>
-    <t>Set up the Database server on the server we got from the CS department. Had a development meeting with Luca and Mihai. Assisted most of the team with getting connected to A. The database server, B. the Github repository, or C. Both. Task  16: Created the methods necessary to post a message but did not implement the business logic within those methods. Added documentation to methods to better connect to the front-end. Task 6: Wrapped SPROC inside a transaction. No parameters actually needed to be validated since they are all OUT parameters. Fixed the bug that had the session ID always be 2 if the session did not exist. Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored.</t>
+    <t xml:space="preserve">Set up the Database server on the server we got from the CS department. Had a development meeting with Luca and Mihai. Assisted most of the team with getting connected to A. The database server, B. the Github repository, or C. Both. Task  16: Created the methods necessary to post a message but did not implement the business logic within those methods. Added documentation to methods to better connect to the front-end. Task 6: Wrapped SPROC inside a transaction. No parameters actually needed to be validated since they are all OUT parameters. Fixed the bug that had the session ID always be 2 if the session did not exist. </t>
+  </si>
+  <si>
+    <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -704,8 +707,12 @@
         <f t="shared" si="1"/>
         <v>44150</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626A7D7D-F0DC-428C-985B-2D016D560095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649DEDA-A8FB-4849-94E2-F6FF58359595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -90,7 +90,10 @@
     <t xml:space="preserve">Set up the Database server on the server we got from the CS department. Had a development meeting with Luca and Mihai. Assisted most of the team with getting connected to A. The database server, B. the Github repository, or C. Both. Task  16: Created the methods necessary to post a message but did not implement the business logic within those methods. Added documentation to methods to better connect to the front-end. Task 6: Wrapped SPROC inside a transaction. No parameters actually needed to be validated since they are all OUT parameters. Fixed the bug that had the session ID always be 2 if the session did not exist. </t>
   </si>
   <si>
-    <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database</t>
+    <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database.</t>
+  </si>
+  <si>
+    <t>Task 16: Complete.</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -730,8 +733,12 @@
         <f t="shared" si="1"/>
         <v>44157</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649DEDA-A8FB-4849-94E2-F6FF58359595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F143602A-2FAF-48CD-959E-A6EA7489E9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database.</t>
   </si>
   <si>
-    <t>Task 16: Complete.</t>
+    <t>Task 16: Complete. Task 18: Complete</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>44157</v>
       </c>
       <c r="E14" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F143602A-2FAF-48CD-959E-A6EA7489E9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4A182B-A1AC-4BF8-BB27-43ED792A4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database.</t>
   </si>
   <si>
-    <t>Task 16: Complete. Task 18: Complete</t>
+    <t>Task 16: Complete. Task 18: Complete. Task 27: Preliminary work. Could never get it working. 30 minute meeting with Luca to resolve a merge conflict.</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>44157</v>
       </c>
       <c r="E14" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4A182B-A1AC-4BF8-BB27-43ED792A4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDEBBFD-9207-4832-AA54-4F123B9D95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database.</t>
   </si>
   <si>
-    <t>Task 16: Complete. Task 18: Complete. Task 27: Preliminary work. Could never get it working. 30 minute meeting with Luca to resolve a merge conflict.</t>
+    <t>Task 16: Complete. Task 18: Complete. Task 27: Created testing for creatingSessions. 30 minute meeting with Luca to resolve a merge conflict.</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
         <v>44157</v>
       </c>
       <c r="E14" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDEBBFD-9207-4832-AA54-4F123B9D95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66633315-04AB-4550-BAF8-75BA0F6C96C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>44157</v>
       </c>
       <c r="E14" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66633315-04AB-4550-BAF8-75BA0F6C96C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A834A1AF-F990-4F2D-A945-F00AA98B9FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database.</t>
   </si>
   <si>
-    <t>Task 16: Complete. Task 18: Complete. Task 27: Created testing for creatingSessions. 30 minute meeting with Luca to resolve a merge conflict.</t>
+    <t>Task 16: Complete. Task 18: Complete. Task 27: finished all session related Junit tests. Started working on message related Junit tests. 30 minute meeting with Luca to resolve a merge conflict.</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>44157</v>
       </c>
       <c r="E14" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A834A1AF-F990-4F2D-A945-F00AA98B9FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7AD491-BD47-4ACC-8D65-428AE8F22142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Task 22: Got some basic error checking working. Can catch the exceptions though right now they're just ignored. Task 13: Taught Shammi how to make a Stored Procedure, Throw Errors, Do IF statements, and store variables in tSQL. Task 17: Created the SPROC to insert a reply into the database.</t>
   </si>
   <si>
-    <t>Task 16: Complete. Task 18: Complete. Task 27: finished all session related Junit tests. Started working on message related Junit tests. 30 minute meeting with Luca to resolve a merge conflict.</t>
+    <t>Task 16: Complete. Task 18: Complete. Task 27: finished all session related Junit tests. Task 30: Started working on message related Junit tests. 30 minute meeting with Luca to resolve a merge conflict.</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>44157</v>
       </c>
       <c r="E14" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>18</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7AD491-BD47-4ACC-8D65-428AE8F22142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C140A-8FBC-45D0-AF52-795575BF8160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Task 16: Complete. Task 18: Complete. Task 27: finished all session related Junit tests. Task 30: Started working on message related Junit tests. 30 minute meeting with Luca to resolve a merge conflict.</t>
+  </si>
+  <si>
+    <t>Task 4 &amp; 6: Completed backend and database implementation of message updating. Task 16: Laid out the groundwork for updating.</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -756,8 +759,12 @@
         <f t="shared" si="1"/>
         <v>44164</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hs-ulm.de\fs\users\pepeco01\Eigene Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C140A-8FBC-45D0-AF52-795575BF8160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -96,13 +95,13 @@
     <t>Task 16: Complete. Task 18: Complete. Task 27: finished all session related Junit tests. Task 30: Started working on message related Junit tests. 30 minute meeting with Luca to resolve a merge conflict.</t>
   </si>
   <si>
-    <t>Task 4 &amp; 6: Completed backend and database implementation of message updating. Task 16: Laid out the groundwork for updating.</t>
+    <t>Task 4 &amp; 6: Completed backend and database implementation of message updating. Task 16: Laid out the groundwork for updating. Downloaded all necessary software to develop stuff without my own computer. All of this is on the Server. Reformatted some code to a different response body we might want to use. Not being used yet. Task 16: Complete. Task 26: Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -182,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -201,9 +200,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -219,9 +215,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -498,21 +504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="4" width="11.296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="151.19921875" customWidth="1"/>
+    <col min="2" max="4" width="11.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="13"/>
+    <col min="6" max="6" width="151.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -522,49 +529,49 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>6003129</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f>_xlfn.ISOWEEKNUM(C7)</f>
         <v>40</v>
       </c>
@@ -575,18 +582,18 @@
         <f>C7+6</f>
         <v>44108</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <f t="shared" ref="B8:B22" si="0">_xlfn.ISOWEEKNUM(C8)</f>
         <v>41</v>
       </c>
@@ -598,18 +605,18 @@
         <f t="shared" ref="D8:D22" si="1">C8+6</f>
         <v>44115</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>5</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -621,18 +628,18 @@
         <f t="shared" si="1"/>
         <v>44122</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>4</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -644,18 +651,18 @@
         <f t="shared" si="1"/>
         <v>44129</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>4</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -667,18 +674,18 @@
         <f t="shared" si="1"/>
         <v>44136</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>10.5</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -690,18 +697,18 @@
         <f t="shared" si="1"/>
         <v>44143</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>8</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -713,18 +720,18 @@
         <f t="shared" si="1"/>
         <v>44150</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -736,18 +743,18 @@
         <f t="shared" si="1"/>
         <v>44157</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
         <v>10</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>9</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -759,135 +766,135 @@
         <f t="shared" si="1"/>
         <v>44164</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="16">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="2"/>
+        <v>44165</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>44171</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="2"/>
+        <v>44172</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>44178</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>12</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="2"/>
+        <v>44179</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>44185</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="2"/>
+        <v>44186</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>44192</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="2"/>
+        <v>44193</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>44199</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="2"/>
+        <v>44200</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>44206</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>16</v>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="2"/>
-        <v>44165</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="1"/>
-        <v>44171</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="2"/>
-        <v>44172</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="1"/>
-        <v>44178</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="2"/>
-        <v>44179</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>44185</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="2"/>
-        <v>44186</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="1"/>
-        <v>44192</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="2"/>
-        <v>44193</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="1"/>
-        <v>44199</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="2"/>
-        <v>44200</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="1"/>
-        <v>44206</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="C22" s="7">
         <f t="shared" si="2"/>
         <v>44207</v>
@@ -896,8 +903,8 @@
         <f t="shared" si="1"/>
         <v>44213</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hs-ulm.de\fs\users\pepeco01\Eigene Dateien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F8191-A9F0-4719-828B-47934BB2A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -96,12 +97,15 @@
   </si>
   <si>
     <t>Task 4 &amp; 6: Completed backend and database implementation of message updating. Task 16: Laid out the groundwork for updating. Downloaded all necessary software to develop stuff without my own computer. All of this is on the Server. Reformatted some code to a different response body we might want to use. Not being used yet. Task 16: Complete. Task 26: Complete</t>
+  </si>
+  <si>
+    <t>Added missing model classes into backend application. Fixed infinite looping object problem.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -227,7 +231,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -504,22 +508,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="4" width="11.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="13"/>
-    <col min="6" max="6" width="151.25" customWidth="1"/>
+    <col min="2" max="4" width="11.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="13"/>
+    <col min="6" max="6" width="151.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -529,7 +533,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="E3" s="14" t="s">
         <v>1</v>
@@ -538,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="E4" s="14" t="s">
         <v>2</v>
@@ -547,7 +551,7 @@
         <v>6003129</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -567,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -589,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -612,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -635,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -658,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -681,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -704,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>7</v>
       </c>
@@ -727,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>8</v>
       </c>
@@ -750,7 +754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -773,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>10</v>
       </c>
@@ -789,10 +793,14 @@
         <f t="shared" si="1"/>
         <v>44171</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -811,7 +819,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -830,7 +838,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -849,7 +857,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>14</v>
       </c>
@@ -868,7 +876,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>15</v>
       </c>
@@ -887,7 +895,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>16</v>
       </c>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F8191-A9F0-4719-828B-47934BB2A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B5EF5C-9522-4459-B025-B26A0D242497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2172" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <t>Task 4 &amp; 6: Completed backend and database implementation of message updating. Task 16: Laid out the groundwork for updating. Downloaded all necessary software to develop stuff without my own computer. All of this is on the Server. Reformatted some code to a different response body we might want to use. Not being used yet. Task 16: Complete. Task 26: Complete</t>
   </si>
   <si>
-    <t>Added missing model classes into backend application. Fixed infinite looping object problem.</t>
+    <t>Added missing model classes into backend application. Fixed infinite looping object problem. Fixed JS to correctly get stuff out of a map. Task 5: Fixed a bug involving POJOs, got the connection to the controller finished. Task 5: Completed.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>0.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B5EF5C-9522-4459-B025-B26A0D242497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FBC21-C095-479E-9D25-3AE963D6156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>Task 4 &amp; 6: Completed backend and database implementation of message updating. Task 16: Laid out the groundwork for updating. Downloaded all necessary software to develop stuff without my own computer. All of this is on the Server. Reformatted some code to a different response body we might want to use. Not being used yet. Task 16: Complete. Task 26: Complete</t>
   </si>
   <si>
-    <t>Added missing model classes into backend application. Fixed infinite looping object problem. Fixed JS to correctly get stuff out of a map. Task 5: Fixed a bug involving POJOs, got the connection to the controller finished. Task 5: Completed.</t>
+    <t>Added missing model classes into backend application. Fixed infinite looping object problem. Fixed JS to correctly get stuff out of a map. Task 5: Fixed a bug involving POJOs, got the connection to the controller finished. Task 5: Completed. Had to revamp DELETE_MESSAGE to delete everything as it should. Task 28: Worked on Junit tests.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>2.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FBC21-C095-479E-9D25-3AE963D6156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B712C-1BDB-4CFE-8092-74611F908E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B712C-1BDB-4CFE-8092-74611F908E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43381D10-5FE5-4A66-9755-40437846E4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4368" yWindow="1908" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -794,7 +794,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>
@@ -913,6 +913,9 @@
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43381D10-5FE5-4A66-9755-40437846E4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1648BC1-3E86-4BAF-AD8A-6B1D0CA62D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4368" yWindow="1908" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Added missing model classes into backend application. Fixed infinite looping object problem. Fixed JS to correctly get stuff out of a map. Task 5: Fixed a bug involving POJOs, got the connection to the controller finished. Task 5: Completed. Had to revamp DELETE_MESSAGE to delete everything as it should. Task 28: Worked on Junit tests.</t>
+  </si>
+  <si>
+    <t>Task 22: Completed. Completed the SPROC for next Sprint to delete everything when a session closes.</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -816,8 +819,12 @@
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B712C-1BDB-4CFE-8092-74611F908E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FBC21-C095-479E-9D25-3AE963D6156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B712C-1BDB-4CFE-8092-74611F908E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B1ED1-D1A2-4CFA-B586-5CE3791FEA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Added missing model classes into backend application. Fixed infinite looping object problem. Fixed JS to correctly get stuff out of a map. Task 5: Fixed a bug involving POJOs, got the connection to the controller finished. Task 5: Completed. Had to revamp DELETE_MESSAGE to delete everything as it should. Task 28: Worked on Junit tests.</t>
+  </si>
+  <si>
+    <t>Created CLOSE_SESSION SPROC for next Sprint</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -794,7 +797,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>
@@ -816,8 +819,12 @@
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B1ED1-D1A2-4CFA-B586-5CE3791FEA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FBC21-C095-479E-9D25-3AE963D6156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Added missing model classes into backend application. Fixed infinite looping object problem. Fixed JS to correctly get stuff out of a map. Task 5: Fixed a bug involving POJOs, got the connection to the controller finished. Task 5: Completed. Had to revamp DELETE_MESSAGE to delete everything as it should. Task 28: Worked on Junit tests.</t>
-  </si>
-  <si>
-    <t>Created CLOSE_SESSION SPROC for next Sprint</t>
   </si>
 </sst>
 </file>
@@ -515,7 +512,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -797,7 +794,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>
@@ -819,12 +816,8 @@
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="E17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FBC21-C095-479E-9D25-3AE963D6156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33629A56-D6BC-428E-9949-72E734985D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="1416" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Added missing model classes into backend application. Fixed infinite looping object problem. Fixed JS to correctly get stuff out of a map. Task 5: Fixed a bug involving POJOs, got the connection to the controller finished. Task 5: Completed. Had to revamp DELETE_MESSAGE to delete everything as it should. Task 28: Worked on Junit tests.</t>
+  </si>
+  <si>
+    <t>I had stuff here but people recklessly reverted commits and then commited those reverts to the head branch. They did so without telling anyone and now I cannot figure out what I did specifically or what is missing from the application!</t>
+  </si>
+  <si>
+    <t>Added new "Likes" table wrote backend code to update likes in the database.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -794,7 +800,7 @@
         <v>44171</v>
       </c>
       <c r="E16" s="16">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>20</v>
@@ -816,8 +822,12 @@
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="16">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -835,8 +845,12 @@
         <f t="shared" si="1"/>
         <v>44185</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33629A56-D6BC-428E-9949-72E734985D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4DB35A-2FAC-46C1-AC7B-B0503FD62BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>I had stuff here but people recklessly reverted commits and then commited those reverts to the head branch. They did so without telling anyone and now I cannot figure out what I did specifically or what is missing from the application!</t>
   </si>
   <si>
-    <t>Added new "Likes" table wrote backend code to update likes in the database.</t>
+    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session. Not tested. Have not been able to connect to VPN even on campus.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -846,7 +846,7 @@
         <v>44185</v>
       </c>
       <c r="E18" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4DB35A-2FAC-46C1-AC7B-B0503FD62BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF93934C-F2B6-484B-8549-FAD05B421A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>I had stuff here but people recklessly reverted commits and then commited those reverts to the head branch. They did so without telling anyone and now I cannot figure out what I did specifically or what is missing from the application!</t>
   </si>
   <si>
-    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session. Not tested. Have not been able to connect to VPN even on campus.</t>
+    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -846,7 +846,7 @@
         <v>44185</v>
       </c>
       <c r="E18" s="16">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF93934C-F2B6-484B-8549-FAD05B421A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0EAC2-F281-4FFC-BFA5-2EAFFA5651AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>I had stuff here but people recklessly reverted commits and then commited those reverts to the head branch. They did so without telling anyone and now I cannot figure out what I did specifically or what is missing from the application!</t>
   </si>
   <si>
-    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message</t>
+    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message. Complete close session</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
         <v>44185</v>
       </c>
       <c r="E18" s="16">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0EAC2-F281-4FFC-BFA5-2EAFFA5651AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE6AEF-6FFB-42C1-9228-0451C1DBF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>I had stuff here but people recklessly reverted commits and then commited those reverts to the head branch. They did so without telling anyone and now I cannot figure out what I did specifically or what is missing from the application!</t>
   </si>
   <si>
-    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message. Complete close session</t>
+    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message. Complete close session. Wrote new Junit tests for bad delete requests.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -846,7 +846,7 @@
         <v>44185</v>
       </c>
       <c r="E18" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE6AEF-6FFB-42C1-9228-0451C1DBF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC51950-08C9-475A-8BBF-28FFAF1619BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,7 +846,7 @@
         <v>44185</v>
       </c>
       <c r="E18" s="16">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC51950-08C9-475A-8BBF-28FFAF1619BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15C9CD-52A2-4FB3-9550-5AD2A1DE4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -105,7 +105,10 @@
     <t>I had stuff here but people recklessly reverted commits and then commited those reverts to the head branch. They did so without telling anyone and now I cannot figure out what I did specifically or what is missing from the application!</t>
   </si>
   <si>
-    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message. Complete close session. Wrote new Junit tests for bad delete requests.</t>
+    <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message. Complete close session. Wrote new Junit tests for bad delete requests. Wrote new Junit tests for like requests and bad like requests</t>
+  </si>
+  <si>
+    <t>Database work before Christmas</t>
   </si>
 </sst>
 </file>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -846,7 +849,7 @@
         <v>44185</v>
       </c>
       <c r="E18" s="16">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>
@@ -868,8 +871,12 @@
         <f t="shared" si="1"/>
         <v>44192</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15C9CD-52A2-4FB3-9550-5AD2A1DE4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0311F012-32DB-4642-89FF-2F0396437669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <t>Added new "Likes" table wrote backend code to update likes in the database. Added backend code to close a session.. Fixed bugs in deleting message and fixed bugs in Junit tests involving the test to update message content and the test to delete messages. Fixed a JUnit test bug where we were testing the wrong procedure. Wrote SPROC to toggle likes on a message. Complete close session. Wrote new Junit tests for bad delete requests. Wrote new Junit tests for like requests and bad like requests</t>
   </si>
   <si>
-    <t>Database work before Christmas</t>
+    <t>Database work before Christmas. Finished helper function to get panic button responses. Fixed a few bugs.</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -872,7 +872,7 @@
         <v>44192</v>
       </c>
       <c r="E19" s="16">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>23</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0311F012-32DB-4642-89FF-2F0396437669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0964F0C2-9E32-431B-87C8-8378C37B38A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Database work before Christmas. Finished helper function to get panic button responses. Fixed a few bugs.</t>
+  </si>
+  <si>
+    <t>CHRISTMAS BREAK</t>
+  </si>
+  <si>
+    <t>Finished last few API calls. Deleted unused code.</t>
   </si>
 </sst>
 </file>
@@ -520,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -894,8 +900,12 @@
         <f t="shared" si="1"/>
         <v>44199</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -913,8 +923,12 @@
         <f t="shared" si="1"/>
         <v>44206</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0964F0C2-9E32-431B-87C8-8378C37B38A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EEFECD-E46A-48A1-B1B5-0B01F57D31E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4368" yWindow="1908" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Finished last few API calls. Deleted unused code.</t>
+  </si>
+  <si>
+    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -946,8 +949,12 @@
         <f t="shared" si="1"/>
         <v>44213</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="16">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EEFECD-E46A-48A1-B1B5-0B01F57D31E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D640FCA3-BDE5-4BB4-BA1E-6E4026D52E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4368" yWindow="1908" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>Finished last few API calls. Deleted unused code.</t>
   </si>
   <si>
-    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly.</t>
+    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it.</t>
   </si>
 </sst>
 </file>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D640FCA3-BDE5-4BB4-BA1E-6E4026D52E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB165E8A-1AD4-439F-AEF8-594CC30AC8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4368" yWindow="1908" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>Finished last few API calls. Deleted unused code.</t>
   </si>
   <si>
-    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it.</t>
+    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it. Worked on web socket stuff</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB165E8A-1AD4-439F-AEF8-594CC30AC8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19024B66-6367-43A1-82BC-BC6337A17A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4368" yWindow="1908" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>Finished last few API calls. Deleted unused code.</t>
   </si>
   <si>
-    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it. Worked on web socket stuff</t>
+    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it. Finally completed web sockets!</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -950,7 +950,7 @@
         <v>44213</v>
       </c>
       <c r="E22" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>26</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19024B66-6367-43A1-82BC-BC6337A17A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C34C0-DE78-4D97-95A0-E77D675BDDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4368" yWindow="1908" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -950,7 +950,7 @@
         <v>44213</v>
       </c>
       <c r="E22" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>26</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C34C0-DE78-4D97-95A0-E77D675BDDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061F838-45CA-4263-A604-439D957CC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>Finished last few API calls. Deleted unused code.</t>
   </si>
   <si>
-    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it. Finally completed web sockets!</t>
+    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it. Finally completed web sockets! Finished HTTPS</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
         <v>44213</v>
       </c>
       <c r="E22" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>26</v>

--- a/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
+++ b/Documentation/SCRUM/TimeLog_ConnorPeper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepercr\Documents\Rose-Local\Software Project\AudienceResponse\CTS5_AudienceResponse\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061F838-45CA-4263-A604-439D957CC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C8C64-8636-4777-8359-F5EB3865191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1560" windowWidth="17472" windowHeight="9876" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>Finished last few API calls. Deleted unused code.</t>
   </si>
   <si>
-    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it. Finally completed web sockets! Finished HTTPS</t>
+    <t>Finalized sesssion closing. Bug fixes. Cleaned up unused code. Added some documentation. Migrated to a different Stored Procedure to close sessions, changed tests accordingly. Re-wrote inserting panic responses since Luca and Mihai obviously never tested it. Finally completed web sockets! Finished HTTPS. Hosted the Spring Boot server on the remote server. Fixed bugs and re-did the architecture notebook and updated all diagrams to reflect the release state of the application.</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -950,7 +950,7 @@
         <v>44213</v>
       </c>
       <c r="E22" s="16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>26</v>
